--- a/字段-0811(1).xlsx
+++ b/字段-0811(1).xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xibalan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PXQ\Desktop\LC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A96B3A3-86ED-644B-92F3-FACF3A27D559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C42CEBD-D57D-4D8D-8FF1-302FC3B3B202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28110" yWindow="-120" windowWidth="28230" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
   <si>
     <t>视频素材</t>
   </si>
@@ -148,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,22 +527,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="12" width="11.33203125" style="1"/>
-    <col min="13" max="14" width="14.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1"/>
-    <col min="16" max="16" width="14.83203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.33203125" style="1"/>
+    <col min="1" max="12" width="11.36328125" style="1"/>
+    <col min="13" max="14" width="14.453125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.36328125" style="1"/>
+    <col min="16" max="16" width="14.81640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,198 +598,226 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -797,7 +826,229 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38EBF-DFE9-4777-B6C0-5C86F7B1D401}">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="2" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0" topPadding="30" bottomPadding="30" leftPadding="15" rightPadding="15">
@@ -811,14 +1062,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -827,7 +1072,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
